--- a/Drafts_and_Writing/Milestone_2/routers.xlsx
+++ b/Drafts_and_Writing/Milestone_2/routers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corey\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corey\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091F31AB-5FBD-4ABE-BDE4-29898BDD7A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDAEB20-CEF0-4A68-88AC-4CF2F5D093E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4308" yWindow="2256" windowWidth="17280" windowHeight="8994" xr2:uid="{B3722AAA-9A19-4520-AE4C-81F866D5AC12}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B3722AAA-9A19-4520-AE4C-81F866D5AC12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>ISP</t>
   </si>
@@ -141,54 +141,6 @@
   </si>
   <si>
     <t>Cox</t>
-  </si>
-  <si>
-    <t>Asus ASUS CMAX6000</t>
-  </si>
-  <si>
-    <t>https://www.asus.com/us/networking-iot-servers/modem-routers/all-series/cmax6000/</t>
-  </si>
-  <si>
-    <t>4808mbps</t>
-  </si>
-  <si>
-    <t>https://dlcdnets.asus.com/pub/ASUS/wireless/CMAX6000/CMAX6000_User_Manual_v10.pdf?model=CMAX6000</t>
-  </si>
-  <si>
-    <t>https://www.surfboard.com/uk/products/wi-fi-cable-modems/g54/</t>
-  </si>
-  <si>
-    <t>https://www.cox.com/residential/support/cox-certified-cable-modems.html</t>
-  </si>
-  <si>
-    <t>TP-LINK AXE300</t>
-  </si>
-  <si>
-    <t>4804mbps</t>
-  </si>
-  <si>
-    <t>https://www.tp-link.com/us/home-networking/wifi-router/archer-axe300/v1/#specifications</t>
-  </si>
-  <si>
-    <t>https://static.tp-link.com/upload/manual/2022/202211/20221102/1910013277_Archer%20AXE300_UG_REV1.0.0.pdf</t>
-  </si>
-  <si>
-    <t>NETGEAR CBR750</t>
-  </si>
-  <si>
-    <t>https://www.downloads.netgear.com/files/GDC/CBK752/CBK750_UM_EN.pdf?_ga=2.72673299.1046744532.1741550487-1919320881.1741550487</t>
-  </si>
-  <si>
-    <t>https://www.netgear.com/home/wifi/mesh/cbr750/</t>
-  </si>
-  <si>
-    <t>Motorola MG8702</t>
-  </si>
-  <si>
-    <t>https://help.motorolanetwork.com/kb/motorola-mg8702/mg8702-product-guides</t>
-  </si>
-  <si>
-    <t>6gpbs</t>
   </si>
 </sst>
 </file>
@@ -575,23 +527,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FF328E-82BC-42BF-95A2-831D3570E2F7}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1015625" customWidth="1"/>
-    <col min="7" max="7" width="19.1015625" customWidth="1"/>
-    <col min="8" max="8" width="19.89453125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -649,7 +601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -678,7 +630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -707,7 +659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -718,7 +670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -747,157 +699,53 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1">
-        <v>490</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1">
-        <v>599</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
       <c r="H8" t="s">
         <v>31</v>
       </c>
-      <c r="I8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1">
-        <v>400</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1">
-        <v>275</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="1">
-        <v>225</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" t="s">
-        <v>49</v>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{E2C4970D-720D-4CC6-A358-737D831F260A}"/>
-    <hyperlink ref="H7" r:id="rId2" xr:uid="{D0D1CBF0-7FDC-4A71-A505-C12D9303AE5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Drafts_and_Writing/Milestone_2/routers.xlsx
+++ b/Drafts_and_Writing/Milestone_2/routers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corey\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDAEB20-CEF0-4A68-88AC-4CF2F5D093E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{055091AC-B8A3-4B50-B976-A5F8062959AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B3722AAA-9A19-4520-AE4C-81F866D5AC12}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>ISP</t>
   </si>
@@ -141,6 +141,57 @@
   </si>
   <si>
     <t>Cox</t>
+  </si>
+  <si>
+    <t>Asus ASUS CMAX6000</t>
+  </si>
+  <si>
+    <t>https://www.asus.com/us/networking-iot-servers/modem-routers/all-series/cmax6000/</t>
+  </si>
+  <si>
+    <t>4808mbps</t>
+  </si>
+  <si>
+    <t>https://dlcdnets.asus.com/pub/ASUS/wireless/CMAX6000/CMAX6000_User_Manual_v10.pdf?model=CMAX6000</t>
+  </si>
+  <si>
+    <t>https://www.surfboard.com/uk/products/wi-fi-cable-modems/g54/</t>
+  </si>
+  <si>
+    <t>https://www.cox.com/residential/support/cox-certified-cable-modems.html</t>
+  </si>
+  <si>
+    <t>TP-LINK AXE300</t>
+  </si>
+  <si>
+    <t>4804mbps</t>
+  </si>
+  <si>
+    <t>https://www.tp-link.com/us/home-networking/wifi-router/archer-axe300/v1/#specifications</t>
+  </si>
+  <si>
+    <t>https://static.tp-link.com/upload/manual/2022/202211/20221102/1910013277_Archer%20AXE300_UG_REV1.0.0.pdf</t>
+  </si>
+  <si>
+    <t>NETGEAR CBR750</t>
+  </si>
+  <si>
+    <t>https://www.downloads.netgear.com/files/GDC/CBK752/CBK750_UM_EN.pdf?_ga=2.72673299.1046744532.1741550487-1919320881.1741550487</t>
+  </si>
+  <si>
+    <t>https://www.netgear.com/home/wifi/mesh/cbr750/</t>
+  </si>
+  <si>
+    <t>Motorola MG8702</t>
+  </si>
+  <si>
+    <t>https://help.motorolanetwork.com/kb/motorola-mg8702/mg8702-product-guides</t>
+  </si>
+  <si>
+    <t>6gpbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These routers were chosen because they were from the top 2 ISPs in the United States (Comcast and Charter) and a local ISP (Cox). A router from the high-, mid-, and low-range price points was selected. Routers which did not have easily accessible open-source documentation were not chosen. Additionally, routers were chosen based on their specifications stating they included wireless connectivity. </t>
   </si>
 </sst>
 </file>
@@ -188,10 +239,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -530,7 +584,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I13"/>
+      <selection activeCell="A13" sqref="A13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,52 +754,172 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1">
+        <v>490</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1">
+        <v>599</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
       <c r="H8" t="s">
         <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1">
+        <v>400</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1">
+        <v>275</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1">
+        <v>225</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:I13"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{E2C4970D-720D-4CC6-A358-737D831F260A}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{D0D1CBF0-7FDC-4A71-A505-C12D9303AE5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>